--- a/Excel/Education_Datasets (2011-2023) aggregated.xlsx
+++ b/Excel/Education_Datasets (2011-2023) aggregated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy Anne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy Anne\Desktop\NPC_LabourLensQ\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A2BC11-BAF3-4386-B050-D30EBA547ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093753B-B542-45B9-BFF6-209733697077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94CF000D-46CD-4490-961B-61EF476762F6}"/>
   </bookViews>
@@ -17,17 +17,19 @@
     <sheet name="2011" sheetId="1" r:id="rId2"/>
     <sheet name="2012" sheetId="2" r:id="rId3"/>
     <sheet name="2013" sheetId="14" r:id="rId4"/>
-    <sheet name="2014" sheetId="3" r:id="rId5"/>
-    <sheet name="2015" sheetId="4" r:id="rId6"/>
-    <sheet name="2016" sheetId="5" r:id="rId7"/>
-    <sheet name="2017" sheetId="6" r:id="rId8"/>
-    <sheet name="2018" sheetId="7" r:id="rId9"/>
-    <sheet name="2019" sheetId="8" r:id="rId10"/>
-    <sheet name="2020" sheetId="9" r:id="rId11"/>
-    <sheet name="2021" sheetId="12" r:id="rId12"/>
-    <sheet name="2022" sheetId="11" r:id="rId13"/>
-    <sheet name="2023" sheetId="10" r:id="rId14"/>
-    <sheet name="ChatGPT Prompt I used" sheetId="13" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId5"/>
+    <sheet name="2014" sheetId="3" r:id="rId6"/>
+    <sheet name="2015" sheetId="4" r:id="rId7"/>
+    <sheet name="2016" sheetId="5" r:id="rId8"/>
+    <sheet name="2017" sheetId="6" r:id="rId9"/>
+    <sheet name="2018" sheetId="7" r:id="rId10"/>
+    <sheet name="2019" sheetId="8" r:id="rId11"/>
+    <sheet name="2020" sheetId="9" r:id="rId12"/>
+    <sheet name="2021" sheetId="12" r:id="rId13"/>
+    <sheet name="2022" sheetId="11" r:id="rId14"/>
+    <sheet name="2023" sheetId="10" r:id="rId15"/>
+    <sheet name="ChatGPT Prompt I used" sheetId="13" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="493">
   <si>
     <t>UNIVERSITY OF QATAR GRADUATES BY NATIONALITY, GENDER AND ACADEMIC DEGREE</t>
   </si>
@@ -2467,6 +2469,12 @@
   <si>
     <t>Jossor Institute / Higher Diploma Bocconi
 College</t>
+  </si>
+  <si>
+    <t>Electricity, gas, steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Water supply; sewerage, waste management and remediation activities</t>
   </si>
 </sst>
 </file>
@@ -6867,6 +6875,21 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{887C80F8-A5D4-4F03-8066-D114C2EDFA1F}" name="Table1" displayName="Table1" ref="A1:F545" totalsRowShown="0">
+  <autoFilter ref="A1:F545" xr:uid="{887C80F8-A5D4-4F03-8066-D114C2EDFA1F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F67F7703-A8EC-4614-BAD0-1AED00662D23}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{D4E48F5F-027F-4D58-ADF9-2CA90483115B}" name="Economic Sector"/>
+    <tableColumn id="3" xr3:uid="{17EDD0F4-EB3E-4D42-810D-AF29DA19E663}" name="Degree Type"/>
+    <tableColumn id="4" xr3:uid="{A112EB04-E498-4CCE-ACFC-238C60C7C6FE}" name="Academic Degree"/>
+    <tableColumn id="5" xr3:uid="{24EB1585-44A8-49C5-BB3C-96DB54B6302A}" name="Male"/>
+    <tableColumn id="6" xr3:uid="{C12EEAB8-7CF1-42E6-AFEC-DC852972ABEA}" name="Female"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -7168,17 +7191,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8426,7 +8449,7 @@
         <v>2014</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C63" t="s">
         <v>419</v>
@@ -8546,7 +8569,7 @@
         <v>2014</v>
       </c>
       <c r="B69" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C69" t="s">
         <v>419</v>
@@ -8566,7 +8589,7 @@
         <v>2014</v>
       </c>
       <c r="B70" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C70" t="s">
         <v>419</v>
@@ -8586,7 +8609,7 @@
         <v>2014</v>
       </c>
       <c r="B71" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C71" t="s">
         <v>419</v>
@@ -8606,7 +8629,7 @@
         <v>2014</v>
       </c>
       <c r="B72" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C72" t="s">
         <v>419</v>
@@ -8626,7 +8649,7 @@
         <v>2014</v>
       </c>
       <c r="B73" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C73" t="s">
         <v>419</v>
@@ -8926,7 +8949,7 @@
         <v>2015</v>
       </c>
       <c r="B88" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C88" t="s">
         <v>419</v>
@@ -9006,7 +9029,7 @@
         <v>2015</v>
       </c>
       <c r="B92" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C92" t="s">
         <v>419</v>
@@ -9086,7 +9109,7 @@
         <v>2015</v>
       </c>
       <c r="B96" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C96" t="s">
         <v>419</v>
@@ -9126,7 +9149,7 @@
         <v>2015</v>
       </c>
       <c r="B98" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C98" t="s">
         <v>419</v>
@@ -9146,7 +9169,7 @@
         <v>2015</v>
       </c>
       <c r="B99" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C99" t="s">
         <v>419</v>
@@ -9166,7 +9189,7 @@
         <v>2015</v>
       </c>
       <c r="B100" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C100" t="s">
         <v>419</v>
@@ -9186,7 +9209,7 @@
         <v>2015</v>
       </c>
       <c r="B101" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C101" t="s">
         <v>419</v>
@@ -9206,7 +9229,7 @@
         <v>2015</v>
       </c>
       <c r="B102" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C102" t="s">
         <v>419</v>
@@ -9366,7 +9389,7 @@
         <v>2016</v>
       </c>
       <c r="B110" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C110" t="s">
         <v>418</v>
@@ -9646,7 +9669,7 @@
         <v>2016</v>
       </c>
       <c r="B124" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C124" t="s">
         <v>419</v>
@@ -9686,7 +9709,7 @@
         <v>2016</v>
       </c>
       <c r="B126" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C126" t="s">
         <v>419</v>
@@ -9746,7 +9769,7 @@
         <v>2016</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C129" t="s">
         <v>419</v>
@@ -9786,7 +9809,7 @@
         <v>2016</v>
       </c>
       <c r="B131" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C131" t="s">
         <v>419</v>
@@ -9806,7 +9829,7 @@
         <v>2016</v>
       </c>
       <c r="B132" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C132" t="s">
         <v>419</v>
@@ -9826,7 +9849,7 @@
         <v>2016</v>
       </c>
       <c r="B133" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C133" t="s">
         <v>419</v>
@@ -9846,7 +9869,7 @@
         <v>2016</v>
       </c>
       <c r="B134" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C134" t="s">
         <v>419</v>
@@ -9866,7 +9889,7 @@
         <v>2016</v>
       </c>
       <c r="B135" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C135" t="s">
         <v>419</v>
@@ -9966,7 +9989,7 @@
         <v>2016</v>
       </c>
       <c r="B140" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C140" t="s">
         <v>115</v>
@@ -10046,7 +10069,7 @@
         <v>2017</v>
       </c>
       <c r="B144" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C144" t="s">
         <v>418</v>
@@ -10266,7 +10289,7 @@
         <v>2017</v>
       </c>
       <c r="B155" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C155" t="s">
         <v>419</v>
@@ -10306,7 +10329,7 @@
         <v>2017</v>
       </c>
       <c r="B157" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C157" t="s">
         <v>419</v>
@@ -10426,7 +10449,7 @@
         <v>2017</v>
       </c>
       <c r="B163" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C163" t="s">
         <v>419</v>
@@ -10466,7 +10489,7 @@
         <v>2017</v>
       </c>
       <c r="B165" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C165" t="s">
         <v>419</v>
@@ -10486,7 +10509,7 @@
         <v>2017</v>
       </c>
       <c r="B166" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C166" t="s">
         <v>419</v>
@@ -10506,7 +10529,7 @@
         <v>2017</v>
       </c>
       <c r="B167" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C167" t="s">
         <v>419</v>
@@ -10526,7 +10549,7 @@
         <v>2017</v>
       </c>
       <c r="B168" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C168" t="s">
         <v>419</v>
@@ -10546,7 +10569,7 @@
         <v>2017</v>
       </c>
       <c r="B169" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C169" t="s">
         <v>419</v>
@@ -10706,7 +10729,7 @@
         <v>2017</v>
       </c>
       <c r="B177" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C177" t="s">
         <v>115</v>
@@ -10726,7 +10749,7 @@
         <v>2017</v>
       </c>
       <c r="B178" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C178" t="s">
         <v>115</v>
@@ -10766,7 +10789,7 @@
         <v>2017</v>
       </c>
       <c r="B180" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C180" t="s">
         <v>115</v>
@@ -10886,7 +10909,7 @@
         <v>2018</v>
       </c>
       <c r="B186" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C186" t="s">
         <v>418</v>
@@ -11066,7 +11089,7 @@
         <v>2018</v>
       </c>
       <c r="B195" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C195" t="s">
         <v>419</v>
@@ -11106,7 +11129,7 @@
         <v>2018</v>
       </c>
       <c r="B197" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C197" t="s">
         <v>419</v>
@@ -11146,7 +11169,7 @@
         <v>2018</v>
       </c>
       <c r="B199" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C199" t="s">
         <v>419</v>
@@ -11286,7 +11309,7 @@
         <v>2018</v>
       </c>
       <c r="B206" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C206" t="s">
         <v>419</v>
@@ -11326,7 +11349,7 @@
         <v>2018</v>
       </c>
       <c r="B208" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C208" t="s">
         <v>419</v>
@@ -11346,7 +11369,7 @@
         <v>2018</v>
       </c>
       <c r="B209" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C209" t="s">
         <v>419</v>
@@ -11366,7 +11389,7 @@
         <v>2018</v>
       </c>
       <c r="B210" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C210" t="s">
         <v>419</v>
@@ -11386,7 +11409,7 @@
         <v>2018</v>
       </c>
       <c r="B211" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C211" t="s">
         <v>419</v>
@@ -11406,7 +11429,7 @@
         <v>2018</v>
       </c>
       <c r="B212" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C212" t="s">
         <v>419</v>
@@ -11566,7 +11589,7 @@
         <v>2018</v>
       </c>
       <c r="B220" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C220" t="s">
         <v>115</v>
@@ -11586,7 +11609,7 @@
         <v>2018</v>
       </c>
       <c r="B221" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C221" t="s">
         <v>115</v>
@@ -11626,7 +11649,7 @@
         <v>2018</v>
       </c>
       <c r="B223" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C223" t="s">
         <v>115</v>
@@ -11646,7 +11669,7 @@
         <v>2018</v>
       </c>
       <c r="B224" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C224" t="s">
         <v>115</v>
@@ -11766,7 +11789,7 @@
         <v>2019</v>
       </c>
       <c r="B230" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C230" t="s">
         <v>418</v>
@@ -11966,7 +11989,7 @@
         <v>2019</v>
       </c>
       <c r="B240" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C240" t="s">
         <v>419</v>
@@ -12006,7 +12029,7 @@
         <v>2019</v>
       </c>
       <c r="B242" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C242" t="s">
         <v>419</v>
@@ -12046,7 +12069,7 @@
         <v>2019</v>
       </c>
       <c r="B244" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C244" t="s">
         <v>419</v>
@@ -12226,7 +12249,7 @@
         <v>2019</v>
       </c>
       <c r="B253" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C253" t="s">
         <v>419</v>
@@ -12246,7 +12269,7 @@
         <v>2019</v>
       </c>
       <c r="B254" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="C254" t="s">
         <v>419</v>
@@ -12266,7 +12289,7 @@
         <v>2019</v>
       </c>
       <c r="B255" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C255" t="s">
         <v>419</v>
@@ -12286,7 +12309,7 @@
         <v>2019</v>
       </c>
       <c r="B256" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C256" t="s">
         <v>419</v>
@@ -12306,7 +12329,7 @@
         <v>2019</v>
       </c>
       <c r="B257" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C257" t="s">
         <v>419</v>
@@ -12326,7 +12349,7 @@
         <v>2019</v>
       </c>
       <c r="B258" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C258" t="s">
         <v>419</v>
@@ -12346,7 +12369,7 @@
         <v>2019</v>
       </c>
       <c r="B259" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C259" t="s">
         <v>419</v>
@@ -12520,7 +12543,7 @@
         <v>2019</v>
       </c>
       <c r="B268" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C268" t="s">
         <v>115</v>
@@ -12540,7 +12563,7 @@
         <v>2019</v>
       </c>
       <c r="B269" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C269" t="s">
         <v>115</v>
@@ -12560,7 +12583,7 @@
         <v>2019</v>
       </c>
       <c r="B270" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C270" t="s">
         <v>115</v>
@@ -12580,7 +12603,7 @@
         <v>2019</v>
       </c>
       <c r="B271" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C271" t="s">
         <v>115</v>
@@ -12600,7 +12623,7 @@
         <v>2019</v>
       </c>
       <c r="B272" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C272" t="s">
         <v>115</v>
@@ -12720,7 +12743,7 @@
         <v>2020</v>
       </c>
       <c r="B278" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C278" t="s">
         <v>418</v>
@@ -12880,7 +12903,7 @@
         <v>2020</v>
       </c>
       <c r="B286" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="C286" t="s">
         <v>89</v>
@@ -12900,7 +12923,7 @@
         <v>2020</v>
       </c>
       <c r="B287" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C287" t="s">
         <v>419</v>
@@ -12940,7 +12963,7 @@
         <v>2020</v>
       </c>
       <c r="B289" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C289" t="s">
         <v>419</v>
@@ -12960,7 +12983,7 @@
         <v>2020</v>
       </c>
       <c r="B290" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C290" t="s">
         <v>419</v>
@@ -13120,7 +13143,7 @@
         <v>2020</v>
       </c>
       <c r="B298" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C298" t="s">
         <v>419</v>
@@ -13160,7 +13183,7 @@
         <v>2020</v>
       </c>
       <c r="B300" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C300" t="s">
         <v>419</v>
@@ -13180,7 +13203,7 @@
         <v>2020</v>
       </c>
       <c r="B301" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C301" t="s">
         <v>419</v>
@@ -13200,7 +13223,7 @@
         <v>2020</v>
       </c>
       <c r="B302" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C302" t="s">
         <v>419</v>
@@ -13220,7 +13243,7 @@
         <v>2020</v>
       </c>
       <c r="B303" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C303" t="s">
         <v>419</v>
@@ -13240,7 +13263,7 @@
         <v>2020</v>
       </c>
       <c r="B304" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C304" t="s">
         <v>419</v>
@@ -13420,7 +13443,7 @@
         <v>2020</v>
       </c>
       <c r="B313" t="s">
-        <v>100</v>
+        <v>426</v>
       </c>
       <c r="C313" t="s">
         <v>419</v>
@@ -13440,7 +13463,7 @@
         <v>2020</v>
       </c>
       <c r="B314" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C314" t="s">
         <v>115</v>
@@ -13480,7 +13503,7 @@
         <v>2020</v>
       </c>
       <c r="B316" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C316" t="s">
         <v>115</v>
@@ -13500,7 +13523,7 @@
         <v>2020</v>
       </c>
       <c r="B317" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C317" t="s">
         <v>115</v>
@@ -13520,7 +13543,7 @@
         <v>2020</v>
       </c>
       <c r="B318" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C318" t="s">
         <v>115</v>
@@ -13540,7 +13563,7 @@
         <v>2020</v>
       </c>
       <c r="B319" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C319" t="s">
         <v>115</v>
@@ -13560,7 +13583,7 @@
         <v>2020</v>
       </c>
       <c r="B320" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C320" t="s">
         <v>115</v>
@@ -13720,7 +13743,7 @@
         <v>2021</v>
       </c>
       <c r="B328" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C328" t="s">
         <v>418</v>
@@ -13920,7 +13943,7 @@
         <v>2021</v>
       </c>
       <c r="B338" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C338" t="s">
         <v>418</v>
@@ -14020,7 +14043,7 @@
         <v>2021</v>
       </c>
       <c r="B343" t="s">
-        <v>100</v>
+        <v>426</v>
       </c>
       <c r="C343" t="s">
         <v>89</v>
@@ -14100,7 +14123,7 @@
         <v>2021</v>
       </c>
       <c r="B347" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C347" t="s">
         <v>419</v>
@@ -14160,7 +14183,7 @@
         <v>2021</v>
       </c>
       <c r="B350" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C350" t="s">
         <v>419</v>
@@ -14200,7 +14223,7 @@
         <v>2021</v>
       </c>
       <c r="B352" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C352" t="s">
         <v>419</v>
@@ -14280,7 +14303,7 @@
         <v>2021</v>
       </c>
       <c r="B356" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C356" t="s">
         <v>419</v>
@@ -14317,7 +14340,7 @@
         <v>2021</v>
       </c>
       <c r="B358" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C358" t="s">
         <v>419</v>
@@ -14337,7 +14360,7 @@
         <v>2021</v>
       </c>
       <c r="B359" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C359" t="s">
         <v>419</v>
@@ -14357,7 +14380,7 @@
         <v>2021</v>
       </c>
       <c r="B360" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C360" t="s">
         <v>419</v>
@@ -14377,7 +14400,7 @@
         <v>2021</v>
       </c>
       <c r="B361" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C361" t="s">
         <v>419</v>
@@ -14397,7 +14420,7 @@
         <v>2021</v>
       </c>
       <c r="B362" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C362" t="s">
         <v>419</v>
@@ -14597,7 +14620,7 @@
         <v>2021</v>
       </c>
       <c r="B372" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C372" t="s">
         <v>115</v>
@@ -14637,7 +14660,7 @@
         <v>2021</v>
       </c>
       <c r="B374" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="C374" t="s">
         <v>115</v>
@@ -14657,7 +14680,7 @@
         <v>2021</v>
       </c>
       <c r="B375" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C375" t="s">
         <v>115</v>
@@ -14677,7 +14700,7 @@
         <v>2021</v>
       </c>
       <c r="B376" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C376" t="s">
         <v>115</v>
@@ -14697,7 +14720,7 @@
         <v>2021</v>
       </c>
       <c r="B377" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C377" t="s">
         <v>115</v>
@@ -14717,7 +14740,7 @@
         <v>2021</v>
       </c>
       <c r="B378" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C378" t="s">
         <v>115</v>
@@ -14897,7 +14920,7 @@
         <v>2022</v>
       </c>
       <c r="B387" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C387" t="s">
         <v>418</v>
@@ -15137,7 +15160,7 @@
         <v>2022</v>
       </c>
       <c r="B399" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C399" t="s">
         <v>418</v>
@@ -15157,7 +15180,7 @@
         <v>2022</v>
       </c>
       <c r="B400" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C400" t="s">
         <v>418</v>
@@ -15177,7 +15200,7 @@
         <v>2022</v>
       </c>
       <c r="B401" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C401" t="s">
         <v>418</v>
@@ -15317,7 +15340,7 @@
         <v>2022</v>
       </c>
       <c r="B408" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C408" t="s">
         <v>418</v>
@@ -15357,7 +15380,7 @@
         <v>2022</v>
       </c>
       <c r="B410" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C410" t="s">
         <v>418</v>
@@ -15437,7 +15460,7 @@
         <v>2022</v>
       </c>
       <c r="B414" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C414" t="s">
         <v>419</v>
@@ -15497,7 +15520,7 @@
         <v>2022</v>
       </c>
       <c r="B417" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C417" t="s">
         <v>419</v>
@@ -15537,7 +15560,7 @@
         <v>2022</v>
       </c>
       <c r="B419" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C419" t="s">
         <v>419</v>
@@ -15717,7 +15740,7 @@
         <v>2022</v>
       </c>
       <c r="B428" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C428" t="s">
         <v>419</v>
@@ -15737,7 +15760,7 @@
         <v>2022</v>
       </c>
       <c r="B429" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C429" t="s">
         <v>419</v>
@@ -15757,7 +15780,7 @@
         <v>2022</v>
       </c>
       <c r="B430" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C430" t="s">
         <v>419</v>
@@ -15777,7 +15800,7 @@
         <v>2022</v>
       </c>
       <c r="B431" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C431" t="s">
         <v>419</v>
@@ -15797,7 +15820,7 @@
         <v>2022</v>
       </c>
       <c r="B432" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C432" t="s">
         <v>419</v>
@@ -16017,7 +16040,7 @@
         <v>2022</v>
       </c>
       <c r="B443" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C443" t="s">
         <v>115</v>
@@ -16057,7 +16080,7 @@
         <v>2022</v>
       </c>
       <c r="B445" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C445" t="s">
         <v>115</v>
@@ -16077,7 +16100,7 @@
         <v>2022</v>
       </c>
       <c r="B446" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C446" t="s">
         <v>115</v>
@@ -16117,7 +16140,7 @@
         <v>2022</v>
       </c>
       <c r="B448" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C448" t="s">
         <v>115</v>
@@ -16137,7 +16160,7 @@
         <v>2022</v>
       </c>
       <c r="B449" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C449" t="s">
         <v>115</v>
@@ -16157,7 +16180,7 @@
         <v>2022</v>
       </c>
       <c r="B450" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C450" t="s">
         <v>115</v>
@@ -16177,7 +16200,7 @@
         <v>2022</v>
       </c>
       <c r="B451" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C451" t="s">
         <v>115</v>
@@ -16197,7 +16220,7 @@
         <v>2022</v>
       </c>
       <c r="B452" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C452" t="s">
         <v>115</v>
@@ -16397,7 +16420,7 @@
         <v>2023</v>
       </c>
       <c r="B462" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C462" t="s">
         <v>418</v>
@@ -16537,7 +16560,7 @@
         <v>2023</v>
       </c>
       <c r="B469" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C469" t="s">
         <v>418</v>
@@ -16637,7 +16660,7 @@
         <v>2023</v>
       </c>
       <c r="B474" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C474" t="s">
         <v>418</v>
@@ -16677,7 +16700,7 @@
         <v>2023</v>
       </c>
       <c r="B476" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C476" t="s">
         <v>418</v>
@@ -16757,7 +16780,7 @@
         <v>2023</v>
       </c>
       <c r="B480" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C480" t="s">
         <v>418</v>
@@ -16917,7 +16940,7 @@
         <v>2023</v>
       </c>
       <c r="B488" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C488" t="s">
         <v>418</v>
@@ -16957,7 +16980,7 @@
         <v>2023</v>
       </c>
       <c r="B490" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C490" t="s">
         <v>418</v>
@@ -16997,7 +17020,7 @@
         <v>2023</v>
       </c>
       <c r="B492" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="C492" t="s">
         <v>418</v>
@@ -17117,7 +17140,7 @@
         <v>2023</v>
       </c>
       <c r="B498" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C498" t="s">
         <v>419</v>
@@ -17157,7 +17180,7 @@
         <v>2023</v>
       </c>
       <c r="B500" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C500" t="s">
         <v>419</v>
@@ -17197,7 +17220,7 @@
         <v>2023</v>
       </c>
       <c r="B502" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C502" t="s">
         <v>419</v>
@@ -17237,7 +17260,7 @@
         <v>2023</v>
       </c>
       <c r="B504" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="C504" t="s">
         <v>419</v>
@@ -17357,7 +17380,7 @@
         <v>2023</v>
       </c>
       <c r="B510" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C510" t="s">
         <v>419</v>
@@ -17397,7 +17420,7 @@
         <v>2023</v>
       </c>
       <c r="B512" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C512" t="s">
         <v>419</v>
@@ -17417,7 +17440,7 @@
         <v>2023</v>
       </c>
       <c r="B513" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C513" t="s">
         <v>419</v>
@@ -17437,7 +17460,7 @@
         <v>2023</v>
       </c>
       <c r="B514" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C514" t="s">
         <v>419</v>
@@ -17457,7 +17480,7 @@
         <v>2023</v>
       </c>
       <c r="B515" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C515" t="s">
         <v>419</v>
@@ -17477,7 +17500,7 @@
         <v>2023</v>
       </c>
       <c r="B516" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C516" t="s">
         <v>419</v>
@@ -17497,7 +17520,7 @@
         <v>2023</v>
       </c>
       <c r="B517" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C517" t="s">
         <v>419</v>
@@ -17717,7 +17740,7 @@
         <v>2023</v>
       </c>
       <c r="B528" t="s">
-        <v>100</v>
+        <v>426</v>
       </c>
       <c r="C528" t="s">
         <v>419</v>
@@ -17737,7 +17760,7 @@
         <v>2023</v>
       </c>
       <c r="B529" t="s">
-        <v>100</v>
+        <v>426</v>
       </c>
       <c r="C529" t="s">
         <v>419</v>
@@ -17757,7 +17780,7 @@
         <v>2023</v>
       </c>
       <c r="B530" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C530" t="s">
         <v>115</v>
@@ -17797,7 +17820,7 @@
         <v>2023</v>
       </c>
       <c r="B532" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="C532" t="s">
         <v>115</v>
@@ -17817,7 +17840,7 @@
         <v>2023</v>
       </c>
       <c r="B533" t="s">
-        <v>294</v>
+        <v>433</v>
       </c>
       <c r="C533" t="s">
         <v>115</v>
@@ -17837,7 +17860,7 @@
         <v>2023</v>
       </c>
       <c r="B534" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C534" t="s">
         <v>115</v>
@@ -17857,7 +17880,7 @@
         <v>2023</v>
       </c>
       <c r="B535" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C535" t="s">
         <v>115</v>
@@ -17897,7 +17920,7 @@
         <v>2023</v>
       </c>
       <c r="B537" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C537" t="s">
         <v>115</v>
@@ -17917,7 +17940,7 @@
         <v>2023</v>
       </c>
       <c r="B538" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C538" t="s">
         <v>115</v>
@@ -17937,7 +17960,7 @@
         <v>2023</v>
       </c>
       <c r="B539" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C539" t="s">
         <v>115</v>
@@ -17957,7 +17980,7 @@
         <v>2023</v>
       </c>
       <c r="B540" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C540" t="s">
         <v>115</v>
@@ -17977,7 +18000,7 @@
         <v>2023</v>
       </c>
       <c r="B541" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C541" t="s">
         <v>115</v>
@@ -18073,11 +18096,2227 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F91C08-23F6-4D0A-A9D2-F3638B9F4756}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33" customHeight="1">
+      <c r="C1" s="320" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="322"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75">
+      <c r="C2" s="341" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="342"/>
+      <c r="K2" s="342"/>
+      <c r="L2" s="342"/>
+      <c r="M2" s="343"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C3" s="383" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="384"/>
+      <c r="E3" s="380" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="380"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="381" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="381"/>
+      <c r="M3" s="382"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C4" s="385"/>
+      <c r="D4" s="386"/>
+      <c r="E4" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="C5" s="387"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="281" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="281" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="389" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="390"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="117"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="99">
+        <v>223</v>
+      </c>
+      <c r="F7" s="99">
+        <v>511</v>
+      </c>
+      <c r="G7" s="100">
+        <f>E7+F7</f>
+        <v>734</v>
+      </c>
+      <c r="H7" s="99">
+        <v>3</v>
+      </c>
+      <c r="I7" s="99">
+        <v>8</v>
+      </c>
+      <c r="J7" s="100">
+        <f>H7+I7</f>
+        <v>11</v>
+      </c>
+      <c r="K7" s="100">
+        <f>SUM(E7+H7)</f>
+        <v>226</v>
+      </c>
+      <c r="L7" s="100">
+        <f>SUM(F7+I7)</f>
+        <v>519</v>
+      </c>
+      <c r="M7" s="119">
+        <f>SUM(K7:L7)</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="22.5">
+      <c r="A8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="89"/>
+      <c r="E8" s="101">
+        <v>20</v>
+      </c>
+      <c r="F8" s="101">
+        <v>1</v>
+      </c>
+      <c r="G8" s="102">
+        <v>21</v>
+      </c>
+      <c r="H8" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="102">
+        <v>20</v>
+      </c>
+      <c r="L8" s="102">
+        <v>1</v>
+      </c>
+      <c r="M8" s="121">
+        <f>SUM(K8:L8)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A9" s="281"/>
+      <c r="B9" s="281"/>
+      <c r="C9" s="391" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="392"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="122"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="105">
+        <v>2</v>
+      </c>
+      <c r="F10" s="105">
+        <v>170</v>
+      </c>
+      <c r="G10" s="106">
+        <f t="shared" ref="G10:G17" si="0">E10+F10</f>
+        <v>172</v>
+      </c>
+      <c r="H10" s="105">
+        <v>9</v>
+      </c>
+      <c r="I10" s="105">
+        <v>118</v>
+      </c>
+      <c r="J10" s="106">
+        <f t="shared" ref="J10:J17" si="1">H10+I10</f>
+        <v>127</v>
+      </c>
+      <c r="K10" s="106">
+        <f t="shared" ref="K10:L17" si="2">SUM(E10+H10)</f>
+        <v>11</v>
+      </c>
+      <c r="L10" s="106">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="M10" s="124">
+        <f t="shared" ref="M10:M17" si="3">SUM(K10:L10)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="107">
+        <v>75</v>
+      </c>
+      <c r="F11" s="107">
+        <v>551</v>
+      </c>
+      <c r="G11" s="108">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="H11" s="107">
+        <v>87</v>
+      </c>
+      <c r="I11" s="107">
+        <v>350</v>
+      </c>
+      <c r="J11" s="108">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+      <c r="K11" s="108">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="L11" s="108">
+        <f t="shared" si="2"/>
+        <v>901</v>
+      </c>
+      <c r="M11" s="126">
+        <f t="shared" si="3"/>
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="23.25" thickBot="1">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="105">
+        <v>19</v>
+      </c>
+      <c r="F12" s="105">
+        <v>88</v>
+      </c>
+      <c r="G12" s="106">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H12" s="105">
+        <v>26</v>
+      </c>
+      <c r="I12" s="105">
+        <v>51</v>
+      </c>
+      <c r="J12" s="106">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="K12" s="106">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L12" s="106">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="M12" s="124">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="107">
+        <v>23</v>
+      </c>
+      <c r="F13" s="107">
+        <v>104</v>
+      </c>
+      <c r="G13" s="108">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H13" s="107">
+        <v>199</v>
+      </c>
+      <c r="I13" s="107">
+        <v>114</v>
+      </c>
+      <c r="J13" s="108">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="K13" s="108">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="L13" s="108">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="M13" s="126">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="23.25" thickBot="1">
+      <c r="A14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="93"/>
+      <c r="E14" s="105">
+        <v>184</v>
+      </c>
+      <c r="F14" s="105">
+        <v>478</v>
+      </c>
+      <c r="G14" s="106">
+        <f t="shared" si="0"/>
+        <v>662</v>
+      </c>
+      <c r="H14" s="105">
+        <v>67</v>
+      </c>
+      <c r="I14" s="105">
+        <v>126</v>
+      </c>
+      <c r="J14" s="106">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="K14" s="106">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="L14" s="106">
+        <f t="shared" si="2"/>
+        <v>604</v>
+      </c>
+      <c r="M14" s="124">
+        <f t="shared" si="3"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="92"/>
+      <c r="E15" s="107">
+        <v>43</v>
+      </c>
+      <c r="F15" s="107">
+        <v>123</v>
+      </c>
+      <c r="G15" s="108">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="H15" s="107">
+        <v>8</v>
+      </c>
+      <c r="I15" s="107">
+        <v>19</v>
+      </c>
+      <c r="J15" s="108">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K15" s="108">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="L15" s="108">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="M15" s="126">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="105">
+        <v>0</v>
+      </c>
+      <c r="F16" s="105">
+        <v>10</v>
+      </c>
+      <c r="G16" s="106">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H16" s="105">
+        <v>0</v>
+      </c>
+      <c r="I16" s="105">
+        <v>77</v>
+      </c>
+      <c r="J16" s="106">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="K16" s="106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="106">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="M16" s="124">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="109">
+        <v>0</v>
+      </c>
+      <c r="F17" s="109">
+        <v>0</v>
+      </c>
+      <c r="G17" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="109">
+        <v>0</v>
+      </c>
+      <c r="I17" s="109">
+        <v>23</v>
+      </c>
+      <c r="J17" s="110">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K17" s="110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="110">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M17" s="128">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A18" s="281"/>
+      <c r="B18" s="281"/>
+      <c r="C18" s="389" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="390"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="117"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="107">
+        <v>0</v>
+      </c>
+      <c r="F19" s="107">
+        <v>4</v>
+      </c>
+      <c r="G19" s="108">
+        <f>E19+F19</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="107">
+        <v>0</v>
+      </c>
+      <c r="I19" s="107">
+        <v>1</v>
+      </c>
+      <c r="J19" s="108">
+        <f>H19+I19</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="108">
+        <f>SUM(E19+H19)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="108">
+        <f>SUM(F19+I19)</f>
+        <v>5</v>
+      </c>
+      <c r="M19" s="126">
+        <f>SUM(K19:L19)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="93"/>
+      <c r="E20" s="105">
+        <v>0</v>
+      </c>
+      <c r="F20" s="105">
+        <v>0</v>
+      </c>
+      <c r="G20" s="106">
+        <f>E20+F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="105">
+        <v>0</v>
+      </c>
+      <c r="I20" s="105">
+        <v>7</v>
+      </c>
+      <c r="J20" s="106">
+        <f t="shared" ref="J20:J54" si="4">H20+I20</f>
+        <v>7</v>
+      </c>
+      <c r="K20" s="106">
+        <f t="shared" ref="K20:L38" si="5">SUM(E20+H20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="106">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="M20" s="124">
+        <f>SUM(K20:L20)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="92"/>
+      <c r="E21" s="107">
+        <v>0</v>
+      </c>
+      <c r="F21" s="107">
+        <v>1</v>
+      </c>
+      <c r="G21" s="108">
+        <f>E21+F21</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="107">
+        <v>3</v>
+      </c>
+      <c r="I21" s="107">
+        <v>0</v>
+      </c>
+      <c r="J21" s="108">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K21" s="108">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L21" s="108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="126">
+        <f>SUM(K21:L21)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="93"/>
+      <c r="E22" s="101">
+        <v>0</v>
+      </c>
+      <c r="F22" s="101">
+        <v>7</v>
+      </c>
+      <c r="G22" s="102">
+        <f t="shared" ref="G22:G54" si="6">E22+F22</f>
+        <v>7</v>
+      </c>
+      <c r="H22" s="101">
+        <v>6</v>
+      </c>
+      <c r="I22" s="101">
+        <v>0</v>
+      </c>
+      <c r="J22" s="102">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K22" s="102">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L22" s="102">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="M22" s="121">
+        <f>SUM(K22:L22)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A23" s="281"/>
+      <c r="B23" s="281"/>
+      <c r="C23" s="393" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="394"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="129"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="123" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="93"/>
+      <c r="E24" s="105">
+        <v>0</v>
+      </c>
+      <c r="F24" s="105">
+        <v>1</v>
+      </c>
+      <c r="G24" s="106">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="105">
+        <v>0</v>
+      </c>
+      <c r="I24" s="105">
+        <v>1</v>
+      </c>
+      <c r="J24" s="106">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="106">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="124">
+        <f t="shared" ref="M24:M38" si="7">SUM(K24:L24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="23.25" thickBot="1">
+      <c r="A25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="92"/>
+      <c r="E25" s="107">
+        <v>0</v>
+      </c>
+      <c r="F25" s="107">
+        <v>6</v>
+      </c>
+      <c r="G25" s="108">
+        <f>E25+F25</f>
+        <v>6</v>
+      </c>
+      <c r="H25" s="107">
+        <v>1</v>
+      </c>
+      <c r="I25" s="107">
+        <v>3</v>
+      </c>
+      <c r="J25" s="108">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K25" s="108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="108">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="M25" s="126">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A26" t="s">
+        <v>441</v>
+      </c>
+      <c r="B26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C26" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="105">
+        <v>1</v>
+      </c>
+      <c r="F26" s="105">
+        <v>0</v>
+      </c>
+      <c r="G26" s="106">
+        <f>E26+F26</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="105">
+        <v>2</v>
+      </c>
+      <c r="I26" s="105">
+        <v>4</v>
+      </c>
+      <c r="J26" s="106">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K26" s="106">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L26" s="106">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M26" s="124">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="92"/>
+      <c r="E27" s="107">
+        <v>1</v>
+      </c>
+      <c r="F27" s="107">
+        <v>3</v>
+      </c>
+      <c r="G27" s="108">
+        <f>E27+F27</f>
+        <v>4</v>
+      </c>
+      <c r="H27" s="107">
+        <v>0</v>
+      </c>
+      <c r="I27" s="107">
+        <v>4</v>
+      </c>
+      <c r="J27" s="108">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K27" s="108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="108">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="M27" s="126">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="23.25" thickBot="1">
+      <c r="A28" t="s">
+        <v>441</v>
+      </c>
+      <c r="B28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="93"/>
+      <c r="E28" s="105">
+        <v>0</v>
+      </c>
+      <c r="F28" s="105">
+        <v>0</v>
+      </c>
+      <c r="G28" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="105">
+        <v>2</v>
+      </c>
+      <c r="I28" s="105">
+        <v>4</v>
+      </c>
+      <c r="J28" s="106">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K28" s="106">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="106">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M28" s="124">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29" t="s">
+        <v>419</v>
+      </c>
+      <c r="C29" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="92"/>
+      <c r="E29" s="107">
+        <v>0</v>
+      </c>
+      <c r="F29" s="107">
+        <v>2</v>
+      </c>
+      <c r="G29" s="108">
+        <f>E29+F29</f>
+        <v>2</v>
+      </c>
+      <c r="H29" s="107">
+        <v>1</v>
+      </c>
+      <c r="I29" s="107">
+        <v>7</v>
+      </c>
+      <c r="J29" s="108">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K29" s="108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="108">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="M29" s="126">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C30" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="93"/>
+      <c r="E30" s="105">
+        <v>1</v>
+      </c>
+      <c r="F30" s="105">
+        <v>8</v>
+      </c>
+      <c r="G30" s="106">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H30" s="105">
+        <v>11</v>
+      </c>
+      <c r="I30" s="105">
+        <v>10</v>
+      </c>
+      <c r="J30" s="106">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="K30" s="106">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="L30" s="106">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="M30" s="124">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="92"/>
+      <c r="E31" s="107">
+        <v>0</v>
+      </c>
+      <c r="F31" s="107">
+        <v>6</v>
+      </c>
+      <c r="G31" s="108">
+        <f>E31+F31</f>
+        <v>6</v>
+      </c>
+      <c r="H31" s="107">
+        <v>3</v>
+      </c>
+      <c r="I31" s="107">
+        <v>12</v>
+      </c>
+      <c r="J31" s="108">
+        <f>H31+I31</f>
+        <v>15</v>
+      </c>
+      <c r="K31" s="108">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L31" s="108">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="M31" s="126">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="23.25" thickBot="1">
+      <c r="A32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="123" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="93"/>
+      <c r="E32" s="105">
+        <v>0</v>
+      </c>
+      <c r="F32" s="105">
+        <v>1</v>
+      </c>
+      <c r="G32" s="106">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="105">
+        <v>2</v>
+      </c>
+      <c r="I32" s="105">
+        <v>5</v>
+      </c>
+      <c r="J32" s="106">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K32" s="106">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L32" s="106">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M32" s="124">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A33" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" s="125" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="107">
+        <v>1</v>
+      </c>
+      <c r="F33" s="107">
+        <v>2</v>
+      </c>
+      <c r="G33" s="108">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="107">
+        <v>1</v>
+      </c>
+      <c r="I33" s="107">
+        <v>6</v>
+      </c>
+      <c r="J33" s="108">
+        <f>H33+I33</f>
+        <v>7</v>
+      </c>
+      <c r="K33" s="108">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="108">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M33" s="126">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="93"/>
+      <c r="E34" s="105">
+        <v>0</v>
+      </c>
+      <c r="F34" s="105">
+        <v>1</v>
+      </c>
+      <c r="G34" s="106">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="105">
+        <v>0</v>
+      </c>
+      <c r="I34" s="105">
+        <v>2</v>
+      </c>
+      <c r="J34" s="106">
+        <f>H34+I34</f>
+        <v>2</v>
+      </c>
+      <c r="K34" s="106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="106">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M34" s="124">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" t="s">
+        <v>419</v>
+      </c>
+      <c r="C35" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="94"/>
+      <c r="E35" s="109">
+        <v>0</v>
+      </c>
+      <c r="F35" s="109">
+        <v>0</v>
+      </c>
+      <c r="G35" s="110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="109">
+        <v>10</v>
+      </c>
+      <c r="I35" s="109">
+        <v>0</v>
+      </c>
+      <c r="J35" s="110">
+        <f>H35+I35</f>
+        <v>10</v>
+      </c>
+      <c r="K35" s="110">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L35" s="110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="128">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C36" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="93"/>
+      <c r="E36" s="113">
+        <v>0</v>
+      </c>
+      <c r="F36" s="113">
+        <v>1</v>
+      </c>
+      <c r="G36" s="114">
+        <f>E36+F36</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="113">
+        <v>8</v>
+      </c>
+      <c r="I36" s="113">
+        <v>7</v>
+      </c>
+      <c r="J36" s="114">
+        <f>H36+I36</f>
+        <v>15</v>
+      </c>
+      <c r="K36" s="114">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L36" s="114">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M36" s="131">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A37" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" t="s">
+        <v>419</v>
+      </c>
+      <c r="C37" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="92"/>
+      <c r="E37" s="107">
+        <v>0</v>
+      </c>
+      <c r="F37" s="107">
+        <v>0</v>
+      </c>
+      <c r="G37" s="108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="107">
+        <v>5</v>
+      </c>
+      <c r="I37" s="107">
+        <v>2</v>
+      </c>
+      <c r="J37" s="108">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K37" s="108">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L37" s="108">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M37" s="126">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A38" t="s">
+        <v>442</v>
+      </c>
+      <c r="B38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="93"/>
+      <c r="E38" s="105">
+        <v>2</v>
+      </c>
+      <c r="F38" s="105">
+        <v>5</v>
+      </c>
+      <c r="G38" s="106">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H38" s="105">
+        <v>9</v>
+      </c>
+      <c r="I38" s="105">
+        <v>7</v>
+      </c>
+      <c r="J38" s="106">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="K38" s="106">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="L38" s="106">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="M38" s="124">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A39" t="s">
+        <v>442</v>
+      </c>
+      <c r="B39" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="92"/>
+      <c r="E39" s="107">
+        <v>0</v>
+      </c>
+      <c r="F39" s="107">
+        <v>1</v>
+      </c>
+      <c r="G39" s="108">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="107">
+        <v>3</v>
+      </c>
+      <c r="I39" s="107">
+        <v>3</v>
+      </c>
+      <c r="J39" s="108">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K39" s="108">
+        <f t="shared" ref="K39:L54" si="8">SUM(E39+H39)</f>
+        <v>3</v>
+      </c>
+      <c r="L39" s="108">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M39" s="126">
+        <f t="shared" ref="M39:M54" si="9">SUM(K39:L39)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="93"/>
+      <c r="E40" s="105">
+        <v>0</v>
+      </c>
+      <c r="F40" s="105">
+        <v>0</v>
+      </c>
+      <c r="G40" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="105">
+        <v>7</v>
+      </c>
+      <c r="I40" s="105">
+        <v>0</v>
+      </c>
+      <c r="J40" s="106">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K40" s="106">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="L40" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="124">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A41" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" t="s">
+        <v>419</v>
+      </c>
+      <c r="C41" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="92"/>
+      <c r="E41" s="107">
+        <v>0</v>
+      </c>
+      <c r="F41" s="107">
+        <v>0</v>
+      </c>
+      <c r="G41" s="108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="107">
+        <v>1</v>
+      </c>
+      <c r="I41" s="107">
+        <v>6</v>
+      </c>
+      <c r="J41" s="108">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K41" s="108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="108">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="M41" s="126">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A42" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="93"/>
+      <c r="E42" s="105">
+        <v>1</v>
+      </c>
+      <c r="F42" s="105">
+        <v>2</v>
+      </c>
+      <c r="G42" s="106">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H42" s="105">
+        <v>0</v>
+      </c>
+      <c r="I42" s="105">
+        <v>7</v>
+      </c>
+      <c r="J42" s="106">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K42" s="106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="106">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="M42" s="124">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A43" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C43" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="92"/>
+      <c r="E43" s="107">
+        <v>0</v>
+      </c>
+      <c r="F43" s="107">
+        <v>2</v>
+      </c>
+      <c r="G43" s="108">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H43" s="107">
+        <v>5</v>
+      </c>
+      <c r="I43" s="107">
+        <v>3</v>
+      </c>
+      <c r="J43" s="108">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K43" s="108">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L43" s="108">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M43" s="126">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A44" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" t="s">
+        <v>419</v>
+      </c>
+      <c r="C44" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="105">
+        <v>4</v>
+      </c>
+      <c r="F44" s="105">
+        <v>4</v>
+      </c>
+      <c r="G44" s="106">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H44" s="105">
+        <v>0</v>
+      </c>
+      <c r="I44" s="105">
+        <v>2</v>
+      </c>
+      <c r="J44" s="106">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K44" s="106">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L44" s="106">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="M44" s="124">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A45" t="s">
+        <v>434</v>
+      </c>
+      <c r="B45" t="s">
+        <v>419</v>
+      </c>
+      <c r="C45" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="92"/>
+      <c r="E45" s="107">
+        <v>9</v>
+      </c>
+      <c r="F45" s="107">
+        <v>8</v>
+      </c>
+      <c r="G45" s="108">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H45" s="107">
+        <v>1</v>
+      </c>
+      <c r="I45" s="107"/>
+      <c r="J45" s="108">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="108">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L45" s="108">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="M45" s="126">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A46" t="s">
+        <v>435</v>
+      </c>
+      <c r="B46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="93"/>
+      <c r="E46" s="105">
+        <v>0</v>
+      </c>
+      <c r="F46" s="105">
+        <v>6</v>
+      </c>
+      <c r="G46" s="106">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H46" s="105">
+        <v>2</v>
+      </c>
+      <c r="I46" s="105">
+        <v>17</v>
+      </c>
+      <c r="J46" s="106">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="K46" s="106">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L46" s="106">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="M46" s="124">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A47" t="s">
+        <v>430</v>
+      </c>
+      <c r="B47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47" s="125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="92"/>
+      <c r="E47" s="107">
+        <v>1</v>
+      </c>
+      <c r="F47" s="107">
+        <v>4</v>
+      </c>
+      <c r="G47" s="108">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H47" s="107">
+        <v>7</v>
+      </c>
+      <c r="I47" s="107">
+        <v>0</v>
+      </c>
+      <c r="J47" s="108">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K47" s="108">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="L47" s="108">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M47" s="126">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="22.5">
+      <c r="A48" t="s">
+        <v>430</v>
+      </c>
+      <c r="B48" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="93"/>
+      <c r="E48" s="101">
+        <v>5</v>
+      </c>
+      <c r="F48" s="101">
+        <v>4</v>
+      </c>
+      <c r="G48" s="102">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H48" s="101">
+        <v>0</v>
+      </c>
+      <c r="I48" s="101">
+        <v>3</v>
+      </c>
+      <c r="J48" s="102">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K48" s="102">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L48" s="102">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="M48" s="121">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A49" s="281"/>
+      <c r="B49" s="281"/>
+      <c r="C49" s="393" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="394"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="129"/>
+    </row>
+    <row r="50" spans="1:13" ht="23.25" thickBot="1">
+      <c r="A50" t="s">
+        <v>441</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="93"/>
+      <c r="E50" s="105">
+        <v>1</v>
+      </c>
+      <c r="F50" s="105">
+        <v>0</v>
+      </c>
+      <c r="G50" s="106">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="105">
+        <v>0</v>
+      </c>
+      <c r="I50" s="105">
+        <v>1</v>
+      </c>
+      <c r="J50" s="106">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L50" s="106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M50" s="124">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A51" t="s">
+        <v>442</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="107">
+        <v>0</v>
+      </c>
+      <c r="F51" s="107">
+        <v>0</v>
+      </c>
+      <c r="G51" s="108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="107">
+        <v>1</v>
+      </c>
+      <c r="I51" s="107">
+        <v>0</v>
+      </c>
+      <c r="J51" s="108">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L51" s="108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="126">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A52" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="105">
+        <v>0</v>
+      </c>
+      <c r="F52" s="105">
+        <v>0</v>
+      </c>
+      <c r="G52" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="105">
+        <v>1</v>
+      </c>
+      <c r="I52" s="105">
+        <v>0</v>
+      </c>
+      <c r="J52" s="106">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="124">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A53" t="s">
+        <v>442</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="92"/>
+      <c r="E53" s="107">
+        <v>0</v>
+      </c>
+      <c r="F53" s="107">
+        <v>0</v>
+      </c>
+      <c r="G53" s="108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="107">
+        <v>1</v>
+      </c>
+      <c r="I53" s="107">
+        <v>1</v>
+      </c>
+      <c r="J53" s="108">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K53" s="108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L53" s="108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="126">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="93"/>
+      <c r="E54" s="101">
+        <v>2</v>
+      </c>
+      <c r="F54" s="101">
+        <v>1</v>
+      </c>
+      <c r="G54" s="102">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H54" s="101">
+        <v>0</v>
+      </c>
+      <c r="I54" s="101">
+        <v>0</v>
+      </c>
+      <c r="J54" s="102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="102">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L54" s="102">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M54" s="121">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1">
+      <c r="C55" s="378" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="379"/>
+      <c r="E55" s="132">
+        <f>SUM(E7:E54)</f>
+        <v>618</v>
+      </c>
+      <c r="F55" s="132">
+        <f t="shared" ref="F55:M55" si="10">SUM(F7:F54)</f>
+        <v>2116</v>
+      </c>
+      <c r="G55" s="132">
+        <f t="shared" si="10"/>
+        <v>2734</v>
+      </c>
+      <c r="H55" s="132">
+        <f t="shared" si="10"/>
+        <v>492</v>
+      </c>
+      <c r="I55" s="132">
+        <f t="shared" si="10"/>
+        <v>1011</v>
+      </c>
+      <c r="J55" s="132">
+        <f t="shared" si="10"/>
+        <v>1503</v>
+      </c>
+      <c r="K55" s="132">
+        <f t="shared" si="10"/>
+        <v>1110</v>
+      </c>
+      <c r="L55" s="132">
+        <f t="shared" si="10"/>
+        <v>3127</v>
+      </c>
+      <c r="M55" s="133">
+        <f t="shared" si="10"/>
+        <v>4237</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C49:D49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26721794-E922-4FC6-9A8C-3C498A30AD5F}">
   <dimension ref="A1:O58"/>
   <sheetViews>
@@ -20425,7 +22664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA32F672-322D-4276-BCD0-157F138CAA6D}">
   <dimension ref="A1:O59"/>
   <sheetViews>
@@ -22808,7 +25047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD49172-7098-40D2-B340-4EDD25AF49A7}">
   <dimension ref="A1:M69"/>
   <sheetViews>
@@ -25340,7 +27579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940E4075-E3BD-42EF-9EE7-CDAC6B887940}">
   <dimension ref="A1:R89"/>
   <sheetViews>
@@ -29638,12 +31877,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1443D1C6-E036-44DC-B13D-5D5B5E1D69C2}">
   <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:R102"/>
+      <selection activeCell="T93" sqref="T93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34779,11 +37018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54246765-075A-44BB-B5E2-1BF60ED4271B}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
@@ -34819,6 +37058,18 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A7"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D0B6EE-36CF-4381-9193-ABB429A44E7E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36443,7 +38694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67DF148-E0D1-4361-8915-2315109DBBAB}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L3" sqref="K3:L22"/>
     </sheetView>
   </sheetViews>
@@ -37307,6 +39558,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83691376-CB4F-45CF-A596-69E3F6EB71EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C05477-F28D-45C4-A895-E8ED675F75FA}">
   <dimension ref="A1:O32"/>
   <sheetViews>
@@ -38745,7 +41008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A6D88C-DD5C-415C-B3C4-565325E1BBB3}">
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -40276,7 +42539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE455BB0-0EDB-4786-B516-DA6A0E701911}">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -41934,7 +44197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E7289B-E16C-4C31-8576-0DF087092037}">
   <dimension ref="A1:M50"/>
   <sheetViews>
@@ -43902,2217 +46165,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F91C08-23F6-4D0A-A9D2-F3638B9F4756}">
-  <dimension ref="A1:O55"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1">
-      <c r="C1" s="320" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="322"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75">
-      <c r="C2" s="341" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="F2" s="342"/>
-      <c r="G2" s="342"/>
-      <c r="H2" s="342"/>
-      <c r="I2" s="342"/>
-      <c r="J2" s="342"/>
-      <c r="K2" s="342"/>
-      <c r="L2" s="342"/>
-      <c r="M2" s="343"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
-      <c r="C3" s="383" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="384"/>
-      <c r="E3" s="380" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="380"/>
-      <c r="G3" s="380"/>
-      <c r="H3" s="380" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="380"/>
-      <c r="J3" s="380"/>
-      <c r="K3" s="381" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="381"/>
-      <c r="M3" s="382"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
-      <c r="C4" s="385"/>
-      <c r="D4" s="386"/>
-      <c r="E4" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="115" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="C5" s="387"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="281" t="s">
-        <v>439</v>
-      </c>
-      <c r="B6" s="281" t="s">
-        <v>440</v>
-      </c>
-      <c r="C6" s="389" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="390"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="117"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="118" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="99">
-        <v>223</v>
-      </c>
-      <c r="F7" s="99">
-        <v>511</v>
-      </c>
-      <c r="G7" s="100">
-        <f>E7+F7</f>
-        <v>734</v>
-      </c>
-      <c r="H7" s="99">
-        <v>3</v>
-      </c>
-      <c r="I7" s="99">
-        <v>8</v>
-      </c>
-      <c r="J7" s="100">
-        <f>H7+I7</f>
-        <v>11</v>
-      </c>
-      <c r="K7" s="100">
-        <f>SUM(E7+H7)</f>
-        <v>226</v>
-      </c>
-      <c r="L7" s="100">
-        <f>SUM(F7+I7)</f>
-        <v>519</v>
-      </c>
-      <c r="M7" s="119">
-        <f>SUM(K7:L7)</f>
-        <v>745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="22.5">
-      <c r="A8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="101">
-        <v>20</v>
-      </c>
-      <c r="F8" s="101">
-        <v>1</v>
-      </c>
-      <c r="G8" s="102">
-        <v>21</v>
-      </c>
-      <c r="H8" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="102">
-        <v>20</v>
-      </c>
-      <c r="L8" s="102">
-        <v>1</v>
-      </c>
-      <c r="M8" s="121">
-        <f>SUM(K8:L8)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A9" s="281"/>
-      <c r="B9" s="281"/>
-      <c r="C9" s="391" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="392"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="122"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="105">
-        <v>2</v>
-      </c>
-      <c r="F10" s="105">
-        <v>170</v>
-      </c>
-      <c r="G10" s="106">
-        <f t="shared" ref="G10:G17" si="0">E10+F10</f>
-        <v>172</v>
-      </c>
-      <c r="H10" s="105">
-        <v>9</v>
-      </c>
-      <c r="I10" s="105">
-        <v>118</v>
-      </c>
-      <c r="J10" s="106">
-        <f t="shared" ref="J10:J17" si="1">H10+I10</f>
-        <v>127</v>
-      </c>
-      <c r="K10" s="106">
-        <f t="shared" ref="K10:L17" si="2">SUM(E10+H10)</f>
-        <v>11</v>
-      </c>
-      <c r="L10" s="106">
-        <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-      <c r="M10" s="124">
-        <f t="shared" ref="M10:M17" si="3">SUM(K10:L10)</f>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C11" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="107">
-        <v>75</v>
-      </c>
-      <c r="F11" s="107">
-        <v>551</v>
-      </c>
-      <c r="G11" s="108">
-        <f t="shared" si="0"/>
-        <v>626</v>
-      </c>
-      <c r="H11" s="107">
-        <v>87</v>
-      </c>
-      <c r="I11" s="107">
-        <v>350</v>
-      </c>
-      <c r="J11" s="108">
-        <f t="shared" si="1"/>
-        <v>437</v>
-      </c>
-      <c r="K11" s="108">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="L11" s="108">
-        <f t="shared" si="2"/>
-        <v>901</v>
-      </c>
-      <c r="M11" s="126">
-        <f t="shared" si="3"/>
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="23.25" thickBot="1">
-      <c r="A12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C12" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="105">
-        <v>19</v>
-      </c>
-      <c r="F12" s="105">
-        <v>88</v>
-      </c>
-      <c r="G12" s="106">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="H12" s="105">
-        <v>26</v>
-      </c>
-      <c r="I12" s="105">
-        <v>51</v>
-      </c>
-      <c r="J12" s="106">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="K12" s="106">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="L12" s="106">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="M12" s="124">
-        <f t="shared" si="3"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A13" t="s">
-        <v>442</v>
-      </c>
-      <c r="B13" t="s">
-        <v>418</v>
-      </c>
-      <c r="C13" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="107">
-        <v>23</v>
-      </c>
-      <c r="F13" s="107">
-        <v>104</v>
-      </c>
-      <c r="G13" s="108">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="H13" s="107">
-        <v>199</v>
-      </c>
-      <c r="I13" s="107">
-        <v>114</v>
-      </c>
-      <c r="J13" s="108">
-        <f t="shared" si="1"/>
-        <v>313</v>
-      </c>
-      <c r="K13" s="108">
-        <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="L13" s="108">
-        <f t="shared" si="2"/>
-        <v>218</v>
-      </c>
-      <c r="M13" s="126">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="23.25" thickBot="1">
-      <c r="A14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B14" t="s">
-        <v>418</v>
-      </c>
-      <c r="C14" s="123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="105">
-        <v>184</v>
-      </c>
-      <c r="F14" s="105">
-        <v>478</v>
-      </c>
-      <c r="G14" s="106">
-        <f t="shared" si="0"/>
-        <v>662</v>
-      </c>
-      <c r="H14" s="105">
-        <v>67</v>
-      </c>
-      <c r="I14" s="105">
-        <v>126</v>
-      </c>
-      <c r="J14" s="106">
-        <f t="shared" si="1"/>
-        <v>193</v>
-      </c>
-      <c r="K14" s="106">
-        <f t="shared" si="2"/>
-        <v>251</v>
-      </c>
-      <c r="L14" s="106">
-        <f t="shared" si="2"/>
-        <v>604</v>
-      </c>
-      <c r="M14" s="124">
-        <f t="shared" si="3"/>
-        <v>855</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A15" t="s">
-        <v>434</v>
-      </c>
-      <c r="B15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C15" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="107">
-        <v>43</v>
-      </c>
-      <c r="F15" s="107">
-        <v>123</v>
-      </c>
-      <c r="G15" s="108">
-        <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="H15" s="107">
-        <v>8</v>
-      </c>
-      <c r="I15" s="107">
-        <v>19</v>
-      </c>
-      <c r="J15" s="108">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="K15" s="108">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="L15" s="108">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="M15" s="126">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A16" t="s">
-        <v>435</v>
-      </c>
-      <c r="B16" t="s">
-        <v>418</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="105">
-        <v>0</v>
-      </c>
-      <c r="F16" s="105">
-        <v>10</v>
-      </c>
-      <c r="G16" s="106">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H16" s="105">
-        <v>0</v>
-      </c>
-      <c r="I16" s="105">
-        <v>77</v>
-      </c>
-      <c r="J16" s="106">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="K16" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="106">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="M16" s="124">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B17" t="s">
-        <v>418</v>
-      </c>
-      <c r="C17" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="109">
-        <v>0</v>
-      </c>
-      <c r="F17" s="109">
-        <v>0</v>
-      </c>
-      <c r="G17" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="109">
-        <v>0</v>
-      </c>
-      <c r="I17" s="109">
-        <v>23</v>
-      </c>
-      <c r="J17" s="110">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="K17" s="110">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="110">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="M17" s="128">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A18" s="281"/>
-      <c r="B18" s="281"/>
-      <c r="C18" s="389" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="390"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="117"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="107">
-        <v>0</v>
-      </c>
-      <c r="F19" s="107">
-        <v>4</v>
-      </c>
-      <c r="G19" s="108">
-        <f>E19+F19</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="107">
-        <v>0</v>
-      </c>
-      <c r="I19" s="107">
-        <v>1</v>
-      </c>
-      <c r="J19" s="108">
-        <f>H19+I19</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="108">
-        <f>SUM(E19+H19)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="108">
-        <f>SUM(F19+I19)</f>
-        <v>5</v>
-      </c>
-      <c r="M19" s="126">
-        <f>SUM(K19:L19)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" t="s">
-        <v>430</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="105">
-        <v>0</v>
-      </c>
-      <c r="F20" s="105">
-        <v>0</v>
-      </c>
-      <c r="G20" s="106">
-        <f>E20+F20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="105">
-        <v>0</v>
-      </c>
-      <c r="I20" s="105">
-        <v>7</v>
-      </c>
-      <c r="J20" s="106">
-        <f t="shared" ref="J20:J54" si="4">H20+I20</f>
-        <v>7</v>
-      </c>
-      <c r="K20" s="106">
-        <f t="shared" ref="K20:L38" si="5">SUM(E20+H20)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="106">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="M20" s="124">
-        <f>SUM(K20:L20)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" t="s">
-        <v>430</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="125" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="107">
-        <v>0</v>
-      </c>
-      <c r="F21" s="107">
-        <v>1</v>
-      </c>
-      <c r="G21" s="108">
-        <f>E21+F21</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="107">
-        <v>3</v>
-      </c>
-      <c r="I21" s="107">
-        <v>0</v>
-      </c>
-      <c r="J21" s="108">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="K21" s="108">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L21" s="108">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="126">
-        <f>SUM(K21:L21)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>430</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="101">
-        <v>0</v>
-      </c>
-      <c r="F22" s="101">
-        <v>7</v>
-      </c>
-      <c r="G22" s="102">
-        <f t="shared" ref="G22:G54" si="6">E22+F22</f>
-        <v>7</v>
-      </c>
-      <c r="H22" s="101">
-        <v>6</v>
-      </c>
-      <c r="I22" s="101">
-        <v>0</v>
-      </c>
-      <c r="J22" s="102">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K22" s="102">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L22" s="102">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="M22" s="121">
-        <f>SUM(K22:L22)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="281"/>
-      <c r="B23" s="281"/>
-      <c r="C23" s="393" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="129"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" t="s">
-        <v>441</v>
-      </c>
-      <c r="B24" t="s">
-        <v>419</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="105">
-        <v>0</v>
-      </c>
-      <c r="F24" s="105">
-        <v>1</v>
-      </c>
-      <c r="G24" s="106">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="105">
-        <v>0</v>
-      </c>
-      <c r="I24" s="105">
-        <v>1</v>
-      </c>
-      <c r="J24" s="106">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="106">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="106">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M24" s="124">
-        <f t="shared" ref="M24:M38" si="7">SUM(K24:L24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="23.25" thickBot="1">
-      <c r="A25" t="s">
-        <v>430</v>
-      </c>
-      <c r="B25" t="s">
-        <v>419</v>
-      </c>
-      <c r="C25" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="107">
-        <v>0</v>
-      </c>
-      <c r="F25" s="107">
-        <v>6</v>
-      </c>
-      <c r="G25" s="108">
-        <f>E25+F25</f>
-        <v>6</v>
-      </c>
-      <c r="H25" s="107">
-        <v>1</v>
-      </c>
-      <c r="I25" s="107">
-        <v>3</v>
-      </c>
-      <c r="J25" s="108">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K25" s="108">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="108">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="M25" s="126">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" t="s">
-        <v>419</v>
-      </c>
-      <c r="C26" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="105">
-        <v>1</v>
-      </c>
-      <c r="F26" s="105">
-        <v>0</v>
-      </c>
-      <c r="G26" s="106">
-        <f>E26+F26</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="105">
-        <v>2</v>
-      </c>
-      <c r="I26" s="105">
-        <v>4</v>
-      </c>
-      <c r="J26" s="106">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K26" s="106">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L26" s="106">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M26" s="124">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A27" t="s">
-        <v>434</v>
-      </c>
-      <c r="B27" t="s">
-        <v>419</v>
-      </c>
-      <c r="C27" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="107">
-        <v>1</v>
-      </c>
-      <c r="F27" s="107">
-        <v>3</v>
-      </c>
-      <c r="G27" s="108">
-        <f>E27+F27</f>
-        <v>4</v>
-      </c>
-      <c r="H27" s="107">
-        <v>0</v>
-      </c>
-      <c r="I27" s="107">
-        <v>4</v>
-      </c>
-      <c r="J27" s="108">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K27" s="108">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="108">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="M27" s="126">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="23.25" thickBot="1">
-      <c r="A28" t="s">
-        <v>441</v>
-      </c>
-      <c r="B28" t="s">
-        <v>419</v>
-      </c>
-      <c r="C28" s="123" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="105">
-        <v>0</v>
-      </c>
-      <c r="F28" s="105">
-        <v>0</v>
-      </c>
-      <c r="G28" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="105">
-        <v>2</v>
-      </c>
-      <c r="I28" s="105">
-        <v>4</v>
-      </c>
-      <c r="J28" s="106">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K28" s="106">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L28" s="106">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M28" s="124">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A29" t="s">
-        <v>436</v>
-      </c>
-      <c r="B29" t="s">
-        <v>419</v>
-      </c>
-      <c r="C29" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="107">
-        <v>0</v>
-      </c>
-      <c r="F29" s="107">
-        <v>2</v>
-      </c>
-      <c r="G29" s="108">
-        <f>E29+F29</f>
-        <v>2</v>
-      </c>
-      <c r="H29" s="107">
-        <v>1</v>
-      </c>
-      <c r="I29" s="107">
-        <v>7</v>
-      </c>
-      <c r="J29" s="108">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="K29" s="108">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="108">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="M29" s="126">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A30" t="s">
-        <v>436</v>
-      </c>
-      <c r="B30" t="s">
-        <v>419</v>
-      </c>
-      <c r="C30" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="105">
-        <v>1</v>
-      </c>
-      <c r="F30" s="105">
-        <v>8</v>
-      </c>
-      <c r="G30" s="106">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H30" s="105">
-        <v>11</v>
-      </c>
-      <c r="I30" s="105">
-        <v>10</v>
-      </c>
-      <c r="J30" s="106">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="K30" s="106">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="L30" s="106">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="M30" s="124">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A31" t="s">
-        <v>436</v>
-      </c>
-      <c r="B31" t="s">
-        <v>419</v>
-      </c>
-      <c r="C31" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="107">
-        <v>0</v>
-      </c>
-      <c r="F31" s="107">
-        <v>6</v>
-      </c>
-      <c r="G31" s="108">
-        <f>E31+F31</f>
-        <v>6</v>
-      </c>
-      <c r="H31" s="107">
-        <v>3</v>
-      </c>
-      <c r="I31" s="107">
-        <v>12</v>
-      </c>
-      <c r="J31" s="108">
-        <f>H31+I31</f>
-        <v>15</v>
-      </c>
-      <c r="K31" s="108">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L31" s="108">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="M31" s="126">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="23.25" thickBot="1">
-      <c r="A32" t="s">
-        <v>430</v>
-      </c>
-      <c r="B32" t="s">
-        <v>419</v>
-      </c>
-      <c r="C32" s="123" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="93"/>
-      <c r="E32" s="105">
-        <v>0</v>
-      </c>
-      <c r="F32" s="105">
-        <v>1</v>
-      </c>
-      <c r="G32" s="106">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H32" s="105">
-        <v>2</v>
-      </c>
-      <c r="I32" s="105">
-        <v>5</v>
-      </c>
-      <c r="J32" s="106">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="K32" s="106">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L32" s="106">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="M32" s="124">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A33" t="s">
-        <v>430</v>
-      </c>
-      <c r="B33" t="s">
-        <v>419</v>
-      </c>
-      <c r="C33" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="107">
-        <v>1</v>
-      </c>
-      <c r="F33" s="107">
-        <v>2</v>
-      </c>
-      <c r="G33" s="108">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H33" s="107">
-        <v>1</v>
-      </c>
-      <c r="I33" s="107">
-        <v>6</v>
-      </c>
-      <c r="J33" s="108">
-        <f>H33+I33</f>
-        <v>7</v>
-      </c>
-      <c r="K33" s="108">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L33" s="108">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="M33" s="126">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A34" t="s">
-        <v>430</v>
-      </c>
-      <c r="B34" t="s">
-        <v>419</v>
-      </c>
-      <c r="C34" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="105">
-        <v>0</v>
-      </c>
-      <c r="F34" s="105">
-        <v>1</v>
-      </c>
-      <c r="G34" s="106">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="105">
-        <v>0</v>
-      </c>
-      <c r="I34" s="105">
-        <v>2</v>
-      </c>
-      <c r="J34" s="106">
-        <f>H34+I34</f>
-        <v>2</v>
-      </c>
-      <c r="K34" s="106">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="106">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M34" s="124">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
-        <v>442</v>
-      </c>
-      <c r="B35" t="s">
-        <v>419</v>
-      </c>
-      <c r="C35" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="109">
-        <v>0</v>
-      </c>
-      <c r="F35" s="109">
-        <v>0</v>
-      </c>
-      <c r="G35" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="109">
-        <v>10</v>
-      </c>
-      <c r="I35" s="109">
-        <v>0</v>
-      </c>
-      <c r="J35" s="110">
-        <f>H35+I35</f>
-        <v>10</v>
-      </c>
-      <c r="K35" s="110">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L35" s="110">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="128">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A36" t="s">
-        <v>437</v>
-      </c>
-      <c r="B36" t="s">
-        <v>419</v>
-      </c>
-      <c r="C36" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="113">
-        <v>0</v>
-      </c>
-      <c r="F36" s="113">
-        <v>1</v>
-      </c>
-      <c r="G36" s="114">
-        <f>E36+F36</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="113">
-        <v>8</v>
-      </c>
-      <c r="I36" s="113">
-        <v>7</v>
-      </c>
-      <c r="J36" s="114">
-        <f>H36+I36</f>
-        <v>15</v>
-      </c>
-      <c r="K36" s="114">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="L36" s="114">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="M36" s="131">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A37" t="s">
-        <v>442</v>
-      </c>
-      <c r="B37" t="s">
-        <v>419</v>
-      </c>
-      <c r="C37" s="125" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="107">
-        <v>0</v>
-      </c>
-      <c r="F37" s="107">
-        <v>0</v>
-      </c>
-      <c r="G37" s="108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="107">
-        <v>5</v>
-      </c>
-      <c r="I37" s="107">
-        <v>2</v>
-      </c>
-      <c r="J37" s="108">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="K37" s="108">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L37" s="108">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M37" s="126">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A38" t="s">
-        <v>442</v>
-      </c>
-      <c r="B38" t="s">
-        <v>419</v>
-      </c>
-      <c r="C38" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="105">
-        <v>2</v>
-      </c>
-      <c r="F38" s="105">
-        <v>5</v>
-      </c>
-      <c r="G38" s="106">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="H38" s="105">
-        <v>9</v>
-      </c>
-      <c r="I38" s="105">
-        <v>7</v>
-      </c>
-      <c r="J38" s="106">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="K38" s="106">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="L38" s="106">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="M38" s="124">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A39" t="s">
-        <v>442</v>
-      </c>
-      <c r="B39" t="s">
-        <v>419</v>
-      </c>
-      <c r="C39" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="107">
-        <v>0</v>
-      </c>
-      <c r="F39" s="107">
-        <v>1</v>
-      </c>
-      <c r="G39" s="108">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H39" s="107">
-        <v>3</v>
-      </c>
-      <c r="I39" s="107">
-        <v>3</v>
-      </c>
-      <c r="J39" s="108">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K39" s="108">
-        <f t="shared" ref="K39:L54" si="8">SUM(E39+H39)</f>
-        <v>3</v>
-      </c>
-      <c r="L39" s="108">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M39" s="126">
-        <f t="shared" ref="M39:M54" si="9">SUM(K39:L39)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A40" t="s">
-        <v>442</v>
-      </c>
-      <c r="B40" t="s">
-        <v>419</v>
-      </c>
-      <c r="C40" s="123" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="105">
-        <v>0</v>
-      </c>
-      <c r="F40" s="105">
-        <v>0</v>
-      </c>
-      <c r="G40" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="105">
-        <v>7</v>
-      </c>
-      <c r="I40" s="105">
-        <v>0</v>
-      </c>
-      <c r="J40" s="106">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="K40" s="106">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="L40" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="124">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A41" t="s">
-        <v>443</v>
-      </c>
-      <c r="B41" t="s">
-        <v>419</v>
-      </c>
-      <c r="C41" s="125" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="107">
-        <v>0</v>
-      </c>
-      <c r="F41" s="107">
-        <v>0</v>
-      </c>
-      <c r="G41" s="108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="107">
-        <v>1</v>
-      </c>
-      <c r="I41" s="107">
-        <v>6</v>
-      </c>
-      <c r="J41" s="108">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="K41" s="108">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L41" s="108">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="M41" s="126">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A42" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" t="s">
-        <v>419</v>
-      </c>
-      <c r="C42" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="105">
-        <v>1</v>
-      </c>
-      <c r="F42" s="105">
-        <v>2</v>
-      </c>
-      <c r="G42" s="106">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H42" s="105">
-        <v>0</v>
-      </c>
-      <c r="I42" s="105">
-        <v>7</v>
-      </c>
-      <c r="J42" s="106">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="K42" s="106">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L42" s="106">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="M42" s="124">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A43" t="s">
-        <v>435</v>
-      </c>
-      <c r="B43" t="s">
-        <v>419</v>
-      </c>
-      <c r="C43" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="107">
-        <v>0</v>
-      </c>
-      <c r="F43" s="107">
-        <v>2</v>
-      </c>
-      <c r="G43" s="108">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H43" s="107">
-        <v>5</v>
-      </c>
-      <c r="I43" s="107">
-        <v>3</v>
-      </c>
-      <c r="J43" s="108">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="K43" s="108">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="L43" s="108">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M43" s="126">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A44" t="s">
-        <v>434</v>
-      </c>
-      <c r="B44" t="s">
-        <v>419</v>
-      </c>
-      <c r="C44" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="105">
-        <v>4</v>
-      </c>
-      <c r="F44" s="105">
-        <v>4</v>
-      </c>
-      <c r="G44" s="106">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="H44" s="105">
-        <v>0</v>
-      </c>
-      <c r="I44" s="105">
-        <v>2</v>
-      </c>
-      <c r="J44" s="106">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="K44" s="106">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="L44" s="106">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="M44" s="124">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A45" t="s">
-        <v>434</v>
-      </c>
-      <c r="B45" t="s">
-        <v>419</v>
-      </c>
-      <c r="C45" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="107">
-        <v>9</v>
-      </c>
-      <c r="F45" s="107">
-        <v>8</v>
-      </c>
-      <c r="G45" s="108">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="H45" s="107">
-        <v>1</v>
-      </c>
-      <c r="I45" s="107"/>
-      <c r="J45" s="108">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K45" s="108">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="L45" s="108">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="M45" s="126">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A46" t="s">
-        <v>435</v>
-      </c>
-      <c r="B46" t="s">
-        <v>419</v>
-      </c>
-      <c r="C46" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="105">
-        <v>0</v>
-      </c>
-      <c r="F46" s="105">
-        <v>6</v>
-      </c>
-      <c r="G46" s="106">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H46" s="105">
-        <v>2</v>
-      </c>
-      <c r="I46" s="105">
-        <v>17</v>
-      </c>
-      <c r="J46" s="106">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="K46" s="106">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L46" s="106">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="M46" s="124">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A47" t="s">
-        <v>430</v>
-      </c>
-      <c r="B47" t="s">
-        <v>419</v>
-      </c>
-      <c r="C47" s="125" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="107">
-        <v>1</v>
-      </c>
-      <c r="F47" s="107">
-        <v>4</v>
-      </c>
-      <c r="G47" s="108">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H47" s="107">
-        <v>7</v>
-      </c>
-      <c r="I47" s="107">
-        <v>0</v>
-      </c>
-      <c r="J47" s="108">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="K47" s="108">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="L47" s="108">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M47" s="126">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="22.5">
-      <c r="A48" t="s">
-        <v>430</v>
-      </c>
-      <c r="B48" t="s">
-        <v>419</v>
-      </c>
-      <c r="C48" s="120" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="93"/>
-      <c r="E48" s="101">
-        <v>5</v>
-      </c>
-      <c r="F48" s="101">
-        <v>4</v>
-      </c>
-      <c r="G48" s="102">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H48" s="101">
-        <v>0</v>
-      </c>
-      <c r="I48" s="101">
-        <v>3</v>
-      </c>
-      <c r="J48" s="102">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="K48" s="102">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="L48" s="102">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="M48" s="121">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A49" s="281"/>
-      <c r="B49" s="281"/>
-      <c r="C49" s="393" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="394"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="129"/>
-    </row>
-    <row r="50" spans="1:13" ht="23.25" thickBot="1">
-      <c r="A50" t="s">
-        <v>441</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="105">
-        <v>1</v>
-      </c>
-      <c r="F50" s="105">
-        <v>0</v>
-      </c>
-      <c r="G50" s="106">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H50" s="105">
-        <v>0</v>
-      </c>
-      <c r="I50" s="105">
-        <v>1</v>
-      </c>
-      <c r="J50" s="106">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K50" s="106">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L50" s="106">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="M50" s="124">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A51" t="s">
-        <v>442</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="107">
-        <v>0</v>
-      </c>
-      <c r="F51" s="107">
-        <v>0</v>
-      </c>
-      <c r="G51" s="108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="107">
-        <v>1</v>
-      </c>
-      <c r="I51" s="107">
-        <v>0</v>
-      </c>
-      <c r="J51" s="108">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K51" s="108">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="108">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="126">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" t="s">
-        <v>437</v>
-      </c>
-      <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="105">
-        <v>0</v>
-      </c>
-      <c r="F52" s="105">
-        <v>0</v>
-      </c>
-      <c r="G52" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="105">
-        <v>1</v>
-      </c>
-      <c r="I52" s="105">
-        <v>0</v>
-      </c>
-      <c r="J52" s="106">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K52" s="106">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L52" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="124">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A53" t="s">
-        <v>442</v>
-      </c>
-      <c r="B53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="125" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="107">
-        <v>0</v>
-      </c>
-      <c r="F53" s="107">
-        <v>0</v>
-      </c>
-      <c r="G53" s="108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="107">
-        <v>1</v>
-      </c>
-      <c r="I53" s="107">
-        <v>1</v>
-      </c>
-      <c r="J53" s="108">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="K53" s="108">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L53" s="108">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="M53" s="126">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="s">
-        <v>442</v>
-      </c>
-      <c r="B54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="93"/>
-      <c r="E54" s="101">
-        <v>2</v>
-      </c>
-      <c r="F54" s="101">
-        <v>1</v>
-      </c>
-      <c r="G54" s="102">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H54" s="101">
-        <v>0</v>
-      </c>
-      <c r="I54" s="101">
-        <v>0</v>
-      </c>
-      <c r="J54" s="102">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="102">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L54" s="102">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="M54" s="121">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C55" s="378" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="379"/>
-      <c r="E55" s="132">
-        <f>SUM(E7:E54)</f>
-        <v>618</v>
-      </c>
-      <c r="F55" s="132">
-        <f t="shared" ref="F55:M55" si="10">SUM(F7:F54)</f>
-        <v>2116</v>
-      </c>
-      <c r="G55" s="132">
-        <f t="shared" si="10"/>
-        <v>2734</v>
-      </c>
-      <c r="H55" s="132">
-        <f t="shared" si="10"/>
-        <v>492</v>
-      </c>
-      <c r="I55" s="132">
-        <f t="shared" si="10"/>
-        <v>1011</v>
-      </c>
-      <c r="J55" s="132">
-        <f t="shared" si="10"/>
-        <v>1503</v>
-      </c>
-      <c r="K55" s="132">
-        <f t="shared" si="10"/>
-        <v>1110</v>
-      </c>
-      <c r="L55" s="132">
-        <f t="shared" si="10"/>
-        <v>3127</v>
-      </c>
-      <c r="M55" s="133">
-        <f t="shared" si="10"/>
-        <v>4237</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C49:D49"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>